--- a/group/G3_3/G3_3_設計書.xlsx
+++ b/group/G3_3/G3_3_設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\今村光汰\Desktop\develop\ohara_uml\group\G3-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\今村光汰\Desktop\develop\ohara_uml\group\G3_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E13FB2-DA34-4D46-AA95-605044473447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898659A-5814-428B-9B7A-C0427036AA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="21" state="hidden" r:id="rId1"/>
@@ -1267,6 +1267,84 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1347,84 +1425,6 @@
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1996,36 +1996,36 @@
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="104"/>
@@ -2037,12 +2037,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2122,36 +2122,36 @@
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="104"/>
@@ -2163,12 +2163,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2248,36 +2248,36 @@
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="104"/>
@@ -2289,12 +2289,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2376,36 +2376,36 @@
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
       <c r="D2" s="103"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="101"/>
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="104"/>
@@ -2417,12 +2417,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2503,36 +2503,36 @@
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="113"/>
@@ -2544,12 +2544,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2629,36 +2629,36 @@
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="113"/>
@@ -2670,12 +2670,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2755,36 +2755,36 @@
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="113"/>
@@ -2796,12 +2796,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2883,36 +2883,36 @@
       <c r="B2" s="111"/>
       <c r="C2" s="111"/>
       <c r="D2" s="112"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="110"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="113"/>
@@ -2924,12 +2924,12 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3414,7 +3414,7 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -3494,7 +3494,7 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3575,19 +3575,19 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I7" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3609,52 +3609,52 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="59" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45919</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="75" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
@@ -3662,193 +3662,213 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="219.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -3858,26 +3878,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3892,19 +3892,19 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3926,52 +3926,52 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="59" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45919</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="75" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
@@ -3979,193 +3979,213 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="219.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="91" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="1:15" ht="81.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -4175,26 +4195,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4209,19 +4209,19 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4243,52 +4243,52 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="59" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45919</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="75" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>40</v>
       </c>
@@ -4296,193 +4296,213 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="88" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="219.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -4492,26 +4512,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4526,19 +4526,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4560,52 +4560,52 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="59" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71">
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="97">
         <v>45919</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="75" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="13" t="s">
         <v>47</v>
       </c>
@@ -4613,200 +4613,207 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="74"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="88" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D7:M7"/>
@@ -4819,18 +4826,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4839,6 +4839,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FA41B8A39F5D7C42A915EA3203D3475A" ma:contentTypeVersion="3" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7bd4a93b8f826dde0255a5a9c5b761a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ec34610-451d-4630-b8fd-572cd48b9242" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a85badd7ad608573bfc58ade974ad5c" ns2:_="">
     <xsd:import namespace="9ec34610-451d-4630-b8fd-572cd48b9242"/>
@@ -4976,22 +4991,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C6F0FCF-3624-4DDB-A171-8F40C8BCB351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072AC1A6-4679-477C-AACD-93A3EE4A7F07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A9A7567-953B-41A4-A2ED-E785EBDFE3E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5007,21 +5024,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{072AC1A6-4679-477C-AACD-93A3EE4A7F07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C6F0FCF-3624-4DDB-A171-8F40C8BCB351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>